--- a/Sample_Data/User.xlsx
+++ b/Sample_Data/User.xlsx
@@ -413,6 +413,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
